--- a/prototype_python/data/ppp/P4_ConflictResolution.xlsx
+++ b/prototype_python/data/ppp/P4_ConflictResolution.xlsx
@@ -61,10 +61,10 @@
     <t>Task</t>
   </si>
   <si>
+    <t>LEFT</t>
+  </si>
+  <si>
     <t>RIGHT</t>
-  </si>
-  <si>
-    <t>LEFT</t>
   </si>
   <si>
     <t>ppp</t>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -496,22 +496,22 @@
         <v>1000.000002</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>501.5156999999988</v>
+        <v>369.8533999999967</v>
       </c>
       <c r="J2" s="2">
-        <v>43775.51430972152</v>
+        <v>43775.52803072619</v>
       </c>
       <c r="K2" s="2">
-        <v>43775.51431795185</v>
+        <v>43775.52803743783</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -531,22 +531,22 @@
         <v>500.000001</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>323.9529999999888</v>
+        <v>364.2488999999927</v>
       </c>
       <c r="J3" s="2">
-        <v>43775.5143242757</v>
+        <v>43775.52804359036</v>
       </c>
       <c r="K3" s="2">
-        <v>43775.51433045133</v>
+        <v>43775.52805023753</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N3" t="s">
         <v>17</v>
@@ -563,25 +563,25 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>1500.000003</v>
+        <v>1000.000002</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>384.048899999982</v>
+        <v>405.1891000000012</v>
       </c>
       <c r="J4" s="2">
-        <v>43775.51434835957</v>
+        <v>43775.52806215019</v>
       </c>
       <c r="K4" s="2">
-        <v>43775.51435522478</v>
+        <v>43775.52806927366</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N4" t="s">
         <v>17</v>
@@ -598,25 +598,25 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1000.000002</v>
+        <v>1500.000003</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5">
-        <v>329.509900000005</v>
+        <v>309.8645999999974</v>
       </c>
       <c r="J5" s="2">
-        <v>43775.51436735471</v>
+        <v>43775.52808705842</v>
       </c>
       <c r="K5" s="2">
-        <v>43775.51437360597</v>
+        <v>43775.5280930724</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -636,22 +636,22 @@
         <v>500.000001</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>575.1757000000168</v>
+        <v>373.6971000000011</v>
       </c>
       <c r="J6" s="2">
-        <v>43775.51437989405</v>
+        <v>43775.528099214</v>
       </c>
       <c r="K6" s="2">
-        <v>43775.5143889901</v>
+        <v>43775.52810597353</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -674,19 +674,19 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>335.0864999999885</v>
+        <v>393.6841000000015</v>
       </c>
       <c r="J7" s="2">
-        <v>43775.51440688538</v>
+        <v>43775.52812370963</v>
       </c>
       <c r="K7" s="2">
-        <v>43775.51441319398</v>
+        <v>43775.52813068773</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>0.6846057</v>
+        <v>0.4214546333333333</v>
       </c>
       <c r="N7" t="s">
         <v>17</v>
